--- a/5.xlsx
+++ b/5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\Dropbox\Мой ПК (Dimpa)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054032E1-1022-4F88-9E4D-B0E806BC94A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A6ECA-7844-4F1C-BE38-3BE4C466F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAE02895-D0EF-4F61-97BE-DBA5EEE29AC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Вища математика</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Іноземна мова</t>
-  </si>
-  <si>
-    <t>Академічне письмо</t>
   </si>
   <si>
     <t>https://meet.google.com/rnd-nayv-rea</t>
@@ -478,7 +475,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +487,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
@@ -501,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -519,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -528,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -540,9 +537,7 @@
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
     </row>
